--- a/Tableau_Synthese_Sirine_El_Gaied.xlsx
+++ b/Tableau_Synthese_Sirine_El_Gaied.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitaldataperf-my.sharepoint.com/personal/sirine_elgaied_d-dp_com/Documents/Bureau/portfolio-finale/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D1401D-AD6D-4D2B-80FC-71634DDABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F2D1401D-AD6D-4D2B-80FC-71634DDABE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3455CF83-9C11-414E-A23D-8231773C1ED9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2025</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Syncro-inc-case</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://portfolio-git-main-sirines-projects-7b7ba639.vercel.app/</t>
   </si>
 </sst>
 </file>
@@ -677,9 +677,84 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -703,81 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1103,56 +1103,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:43" ht="41.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="46"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1160,26 +1160,26 @@
         <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34"/>
+      <c r="A5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1202,8 +1202,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1259,16 +1259,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1307,17 +1307,17 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1356,16 +1356,16 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>30</v>
-      </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="11"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1405,16 +1405,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>32</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="39">
+        <v>38</v>
+      </c>
+      <c r="B12" s="17">
         <v>45566</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="11"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="39">
+        <v>32</v>
+      </c>
+      <c r="B13" s="17">
         <v>45597</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1552,15 +1552,15 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="39">
+        <v>33</v>
+      </c>
+      <c r="B14" s="17">
         <v>45627</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
       <c r="I14"/>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="39">
+        <v>34</v>
+      </c>
+      <c r="B15" s="17">
         <v>45292</v>
       </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="11"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1649,16 +1649,16 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1697,16 +1697,16 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="11"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -1745,16 +1745,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1792,18 +1792,18 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1841,18 +1841,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="46">
+      <c r="A20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="23">
         <v>45658</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1891,17 +1891,17 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1939,18 +1939,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="A22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2567,6 +2567,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2574,11 +2579,6 @@
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
